--- a/cypress/downloads/order-invoice_ikaikenway.xlsx
+++ b/cypress/downloads/order-invoice_ikaikenway.xlsx
@@ -424,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>654210557244490f95dc36fa</v>
+        <v>65430dcc7244490f95dce472</v>
       </c>
       <c r="B2" t="str">
         <v>adidas original</v>
